--- a/data/income_statement/2digits/size/47_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/47_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>47-Retail trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>47-Retail trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>25982155.59118</v>
+        <v>27182327.49715</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>26819039.79081</v>
+        <v>28179868.15422999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>27764262.41199</v>
+        <v>29331186.66147999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>25787859.74533</v>
+        <v>27632548.3122</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>24291140.2861</v>
+        <v>26535804.60174</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>23776428.35027</v>
+        <v>26362425.50976</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>23436752.19139</v>
+        <v>26490667.74911</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>23315300.68581999</v>
+        <v>26451515.62677</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>23304850.6687</v>
+        <v>26684345.42642</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>59711182.99826</v>
+        <v>64825532.63919999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>62130632.99929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>69928756.05125</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>69216785.56999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>25207973.13201</v>
+        <v>26348136.61764</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>25967790.074</v>
+        <v>27260022.74864</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>26644693.00695</v>
+        <v>28140324.69808</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>24949095.50101</v>
+        <v>26706794.55349</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>23663708.55611</v>
+        <v>25807034.1072</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>23120948.64865</v>
+        <v>25597270.96908</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>22618718.04</v>
+        <v>25529799.82308</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>22210038.11939</v>
+        <v>25206501.29064</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>22124042.39795</v>
+        <v>25331258.44652</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>57297852.74581</v>
+        <v>62094151.01581</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>59273718.38146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>66696013.57233001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>66470142.961</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>481567.65473</v>
+        <v>510978.31381</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>530827.89</v>
+        <v>563095.40634</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>788980.0267</v>
+        <v>816261.9998399999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>534757.9847700001</v>
+        <v>569154.5696999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>344385.3699</v>
+        <v>381169.62515</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>369098.59258</v>
+        <v>406709.34537</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>545115.55751</v>
+        <v>596058.2363199999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>810992.0741</v>
+        <v>849308.16126</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>858735.0650999999</v>
+        <v>913296.2160599998</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1582779.62032</v>
+        <v>1698589.35537</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1935026.50125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2086810.14984</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1622874.461</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>292614.80444</v>
+        <v>323212.5657</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>320421.82681</v>
+        <v>356749.99925</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>330589.3783400001</v>
+        <v>374599.9635599999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>304006.25955</v>
+        <v>356599.18901</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>283046.36009</v>
+        <v>347600.86939</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>286381.10904</v>
+        <v>358445.19531</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>272918.59388</v>
+        <v>364809.6897100001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>294270.49233</v>
+        <v>395706.17487</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>322073.20565</v>
+        <v>439790.76384</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>830550.63213</v>
+        <v>1032792.26802</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>921888.11658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1145932.32908</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1123768.148</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>125555.14571</v>
+        <v>139535.39271</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>118348.04326</v>
+        <v>136137.88207</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>139957.67431</v>
+        <v>152313.07805</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>123467.61285</v>
+        <v>143938.37061</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>114346.48596</v>
+        <v>131753.82497</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>117515.80351</v>
+        <v>138517.04741</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>109449.59417</v>
+        <v>136014.90254</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>114493.28845</v>
+        <v>146861.33052</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>116625.45158</v>
+        <v>152687.04619</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>410042.91347</v>
+        <v>469288.09943</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>536624.28717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>586287.46668</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>849323.546</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>93127.97479000001</v>
+        <v>104353.24511</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>88609.39122</v>
+        <v>101734.40596</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>113204.85506</v>
+        <v>124067.55519</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>98228.53189</v>
+        <v>113006.01698</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>91035.09856</v>
+        <v>104946.26723</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>93196.91325</v>
+        <v>110120.62648</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>88500.32169</v>
+        <v>104445.33905</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>86855.90897</v>
+        <v>108750.7729</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>91252.34522999999</v>
+        <v>120631.96237</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>302975.5960899999</v>
+        <v>354753.23699</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>406740.7463300001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>444804.47763</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>695898.59</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>26510.18564</v>
+        <v>28883.28324</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>24901.73318</v>
+        <v>27444.83944</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>21804.29252</v>
+        <v>23075.76197</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>20588.80188</v>
+        <v>26025.99426</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>19042.74964</v>
+        <v>21871.60230000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>16172.90035</v>
+        <v>19861.1488</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>13464.54561</v>
+        <v>22940.5847</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>18245.0801</v>
+        <v>23642.43309</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>11746.38046</v>
+        <v>18174.84863</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>48404.57095</v>
+        <v>54481.7215</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>48506.15684999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>54628.75605</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>44129.17</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5916.985279999999</v>
+        <v>6298.86436</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4836.918860000001</v>
+        <v>6958.636670000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>4948.52673</v>
+        <v>5169.76089</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4650.279079999999</v>
+        <v>4906.359369999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4268.637760000001</v>
+        <v>4935.955440000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8145.989909999999</v>
+        <v>8535.272129999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7484.72687</v>
+        <v>8628.978789999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>9392.299379999999</v>
+        <v>14468.12453</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>13626.72589</v>
+        <v>13880.23519</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>58662.74643000001</v>
+        <v>60053.14094</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>81377.38399000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>86854.23300000002</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>109295.786</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>25856600.44547</v>
+        <v>27042792.10444</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>26700691.74755</v>
+        <v>28043730.27216</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>27624304.73768</v>
+        <v>29178873.58343</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>25664392.13248</v>
+        <v>27488609.94159</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>24176793.80014</v>
+        <v>26404050.77677</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>23658912.54676</v>
+        <v>26223908.46235</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>23327302.59722</v>
+        <v>26354652.84657</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>23200807.39737</v>
+        <v>26304654.29625</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>23188225.21712</v>
+        <v>26531658.38023</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>59301140.08479</v>
+        <v>64356244.53977001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>61594008.71212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>69342468.58456999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>68367462.024</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>22578949.40146</v>
+        <v>23532914.92122</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>23346215.45016</v>
+        <v>24414137.68355</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>24204939.87654</v>
+        <v>25434240.51162</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>22346119.44976</v>
+        <v>23783023.9502</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>21035516.71277</v>
+        <v>22803598.32697</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>20568254.62669</v>
+        <v>22606100.47251</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>20220688.6734</v>
+        <v>22635767.35062</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>19929404.41249</v>
+        <v>22321410.61947</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>19970312.97332</v>
+        <v>22547005.2243</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>51613358.20164999</v>
+        <v>55721340.17068999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>53149382.24233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>59495086.48417</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>58575835.953</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>980157.9145100001</v>
+        <v>1056231.8074</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>921912.10477</v>
+        <v>1008060.14777</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1018846.83531</v>
+        <v>1116604.98837</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>917295.62954</v>
+        <v>1025665.9971</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>772251.50567</v>
+        <v>892801.9055</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>710569.7813200001</v>
+        <v>845754.1031199999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>697963.1706900001</v>
+        <v>862251.0746199999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>670501.1192</v>
+        <v>843021.2849600001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>678653.22217</v>
+        <v>875112.50132</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1610288.56805</v>
+        <v>1837321.02845</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1849132.27247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2250326.23197</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2094178.372</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>20915472.31626</v>
+        <v>21750288.18385</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>21683162.98046</v>
+        <v>22614709.80548</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>22355674.84362</v>
+        <v>23425234.00483</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>20664464.47556</v>
+        <v>21924543.91998</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>19657095.06789</v>
+        <v>21231937.46115</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>19247307.94437</v>
+        <v>21069732.07092</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>18861322.99996</v>
+        <v>21001218.42919</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>18136369.78225</v>
+        <v>20229507.58708</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>18467003.21409</v>
+        <v>20686205.90147</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>48204041.36375</v>
+        <v>51923366.63025</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>49103034.68491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>54820353.47091</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>54621367.131</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>658427.9279400001</v>
+        <v>696810.75259</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>713652.5519699999</v>
+        <v>761848.3633199999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>798887.51211</v>
+        <v>857143.19825</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>726773.7186500001</v>
+        <v>792074.80813</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>575954.73963</v>
+        <v>644526.7332</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>584712.81204</v>
+        <v>659376.00985</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>611350.22436</v>
+        <v>709362.40856</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>626919.09161</v>
+        <v>739991.0613700001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>749088.83968</v>
+        <v>880863.35329</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1402939.92187</v>
+        <v>1536158.30947</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2027458.28066</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2219807.74933</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1666107.069</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>24891.24275</v>
+        <v>29584.17738</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>27487.81296</v>
+        <v>29519.36698</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>31530.6855</v>
+        <v>35258.32017</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>37585.62601</v>
+        <v>40739.22499</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>30215.39958</v>
+        <v>34332.22712</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>25664.08896</v>
+        <v>31238.28862</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>50052.27839</v>
+        <v>62935.43825</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>495614.41943</v>
+        <v>508890.68606</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>75567.69738</v>
+        <v>104823.46822</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>396088.34798</v>
+        <v>424494.20252</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>169757.00429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>204599.03196</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>194183.381</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3277651.04401</v>
+        <v>3509877.18322</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3354476.29739</v>
+        <v>3629592.58861</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3419364.86114</v>
+        <v>3744633.07181</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3318272.68272</v>
+        <v>3705585.991390001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3141277.08737</v>
+        <v>3600452.4498</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3090657.92007</v>
+        <v>3617807.98984</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3106613.92382</v>
+        <v>3718885.49595</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3271402.98488</v>
+        <v>3983243.67678</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3217912.2438</v>
+        <v>3984653.15593</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7687781.883140001</v>
+        <v>8634904.369079998</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8444626.46979</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9847382.100399999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9791626.071</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2850762.44676</v>
+        <v>3102703.22635</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2918992.72759</v>
+        <v>3204713.99798</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3044681.40093</v>
+        <v>3398979.8013</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3050539.64496</v>
+        <v>3449515.21933</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2970676.09053</v>
+        <v>3479095.287899999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2961136.91971</v>
+        <v>3529436.58089</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2964428.878479999</v>
+        <v>3655150.24878</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3240224.5304</v>
+        <v>4059277.20954</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3211668.0102</v>
+        <v>4084622.24319</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>7003212.428080001</v>
+        <v>7939818.789530001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7799723.94564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>9256777.48308</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>9217747.566</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>7342.00071</v>
+        <v>8035.924400000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>7004.41205</v>
+        <v>7373.55647</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>9541.926939999999</v>
+        <v>12098.47401</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7777.319810000001</v>
+        <v>8971.72363</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4032.98568</v>
+        <v>5692.102960000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4979.16754</v>
+        <v>6064.53949</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5665.388579999999</v>
+        <v>7370.858179999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4320.753610000001</v>
+        <v>5942.76512</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>6199.282039999999</v>
+        <v>8501.796969999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>13183.83087</v>
+        <v>15542.58986</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>12263.0188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16912.81457</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>19525.487</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>577969.3751500001</v>
+        <v>626948.8658799999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>607360.2444099999</v>
+        <v>666011.67261</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>637276.6834</v>
+        <v>703909.85616</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>636311.74496</v>
+        <v>721007.95309</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>630380.61162</v>
+        <v>735666.2401100001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>638939.1883599999</v>
+        <v>758182.39653</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>635665.7439999998</v>
+        <v>781497.20803</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>709047.8800199999</v>
+        <v>885093.3168499999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>695363.1385600001</v>
+        <v>876378.50722</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1704701.40904</v>
+        <v>1915281.99334</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1960026.54388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2291783.21032</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2353176.605</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2265451.070900001</v>
+        <v>2467718.43607</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2304628.07113</v>
+        <v>2531328.7689</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2397862.79059</v>
+        <v>2682971.47113</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2406450.58019</v>
+        <v>2719535.54261</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2336262.49323</v>
+        <v>2737736.94483</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2317218.56381</v>
+        <v>2765189.64487</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2323097.7459</v>
+        <v>2866282.18257</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2526855.89677</v>
+        <v>3168241.12757</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2510105.5896</v>
+        <v>3199741.939</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5285327.18817</v>
+        <v>6008994.206329999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5827434.38296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6948081.458190001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6845045.474</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>426888.59725</v>
+        <v>407173.95687</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>435483.5698</v>
+        <v>424878.59063</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>374683.46021</v>
+        <v>345653.27051</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>267733.03776</v>
+        <v>256070.77206</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>170600.99684</v>
+        <v>121357.1619</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>129521.00036</v>
+        <v>88371.40894999998</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>142185.04534</v>
+        <v>63735.24717</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>31178.45448</v>
+        <v>-76033.53275999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6244.233599999994</v>
+        <v>-99969.08726000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>684569.4550600001</v>
+        <v>695085.5795499999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>644902.5241499998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>590604.6173200001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>573878.505</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>95450.24073</v>
+        <v>3088767.51274</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>95859.37580999998</v>
+        <v>641994.37916</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>112212.23889</v>
+        <v>361278.99002</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>94657.83093</v>
+        <v>376485.28596</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>94307.82245000001</v>
+        <v>268085.58107</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>153283.40699</v>
+        <v>494261.17977</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>164869.55644</v>
+        <v>512201.8788300001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>89394.14096999998</v>
+        <v>609946.60427</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>101146.0173</v>
+        <v>564879.9338400001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>412542.07548</v>
+        <v>1641212.20891</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>333107.41505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1181927.68785</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1166707.032</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>641.78611</v>
+        <v>31953.01469</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>73.49539999999999</v>
+        <v>45389.53346</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>993.88261</v>
+        <v>74365.93864000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>617.76014</v>
+        <v>87478.40263000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>880.4397799999999</v>
+        <v>45943.28856</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>640.78964</v>
+        <v>84952.74848000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>317.74755</v>
+        <v>82430.36595000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>650.1425499999999</v>
+        <v>123764.79024</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>186.53285</v>
+        <v>182832.0665</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2638.639099999999</v>
+        <v>216458.9835</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4011.36231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>158441.61872</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>67796.792</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>156.91783</v>
+        <v>2444044.44673</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>339.74063</v>
+        <v>197989.81402</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>232.08741</v>
+        <v>3433.13261</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>37.51741000000001</v>
+        <v>23541.30078</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>98.69689</v>
+        <v>7281.78419</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>99.79176000000001</v>
+        <v>7905.86864</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>200.59413</v>
+        <v>7784.454960000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>54.21474</v>
+        <v>25574.48089</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>193.31061</v>
+        <v>9740.820510000001</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>3248.54609</v>
+        <v>35954.43404</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>324.35611</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>26702.61903</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>16431.257</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>8029.42399</v>
+        <v>30200.00687999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>8180.79358</v>
+        <v>26502.95389</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7784.93975</v>
+        <v>28090.00111</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8137.76203</v>
+        <v>28229.07559999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6790.289100000001</v>
+        <v>29303.53839</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8007.286939999999</v>
+        <v>27788.31671</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8024.43364</v>
+        <v>37550.71264</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6778.088140000001</v>
+        <v>48151.83936</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8408.629110000002</v>
+        <v>50802.78518</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>35387.93059</v>
+        <v>124274.24461</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>41052.33465999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>197771.01403</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>133862.94</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>12720.5432</v>
+        <v>13675.90205</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>11406.19797</v>
+        <v>12771.66964</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>11906.18518</v>
+        <v>12458.86074</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>13157.68169</v>
+        <v>13923.46269</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>11378.11881</v>
+        <v>12169.83805</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>11198.49162</v>
+        <v>12872.29383</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>12471.57708</v>
+        <v>14338.64416</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>10894.82468</v>
+        <v>14781.21858</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>10154.31998</v>
+        <v>12160.19815</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>16919.1969</v>
+        <v>19484.16735</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>15958.71898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>19617.11409</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>26595.018</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3431.45295</v>
+        <v>4012.81127</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2586.73457</v>
+        <v>5074.11319</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3294.51463</v>
+        <v>46456.8376</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1471.36969</v>
+        <v>3828.64595</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>790.3078999999999</v>
+        <v>2703.38391</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>744.4363499999998</v>
+        <v>1604.65757</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1723.15085</v>
+        <v>3432.49286</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>974.5877200000001</v>
+        <v>3801.5775</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>702.92071</v>
+        <v>3512.37686</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5596.901400000001</v>
+        <v>9611.996369999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3314.4062</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6626.02655</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>21311.428</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1480.37541</v>
+        <v>2052.1766</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>972.74347</v>
+        <v>1437.38102</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2760.53718</v>
+        <v>3810.57224</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1375.66033</v>
+        <v>2209.62038</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3518.870829999999</v>
+        <v>11811.4909</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>64005.05359</v>
+        <v>65090.78679</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>69369.47396999999</v>
+        <v>74679.22725</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>811.49274</v>
+        <v>107454.05281</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1011.93632</v>
+        <v>3407.18143</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3057.96563</v>
+        <v>4665.152160000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3474.16703</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5407.66607</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>16466.304</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>19399.19027</v>
+        <v>491073.62292</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>20467.10474</v>
+        <v>268156.99853</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>26787.86722</v>
+        <v>101335.15638</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>12931.90113</v>
+        <v>120490.42423</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>17064.45561</v>
+        <v>61539.846</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>14433.92455</v>
+        <v>178116.65457</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>25382.84076</v>
+        <v>166676.88321</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>18857.33581</v>
+        <v>135334.25283</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>25375.77089</v>
+        <v>129175.4792</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>153716.96936</v>
+        <v>890560.72826</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>78073.09248000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>412524.68189</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>461508.964</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>302.11273</v>
+        <v>341.44059</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>195.8977</v>
+        <v>283.95879</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>109.17668</v>
+        <v>132.49394</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>98.04622999999999</v>
+        <v>139.62423</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>30.69818</v>
+        <v>232.57911</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>13.11746</v>
+        <v>184.46819</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>86.63507999999999</v>
+        <v>374.20107</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>18.27099</v>
+        <v>177.04634</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>61.2623</v>
+        <v>92.54684999999999</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>334.40292</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>26.78952</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>6591.51567</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>6593.858</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>4060.53543</v>
+        <v>5289.232109999999</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>4770.08552</v>
+        <v>6174.71752</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>5675.41075</v>
+        <v>7644.89518</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>3558.13257</v>
+        <v>4806.21105</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>5945.84061</v>
+        <v>9031.311169999999</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>5383.764829999999</v>
+        <v>10188.37539</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>6558.73624</v>
+        <v>11772.35939</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>7701.152200000001</v>
+        <v>13839.60401</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>11396.31534</v>
+        <v>23643.4208</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>59938.69048</v>
+        <v>92677.67194999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>23870.78171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>38578.29326</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>83212.60000000001</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>45227.90281</v>
+        <v>66124.85889999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>46866.58223</v>
+        <v>78213.23909999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>52667.63748</v>
+        <v>83551.10158</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>53271.99971</v>
+        <v>91838.51842000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>47810.10474</v>
+        <v>88068.52079000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>48756.75025</v>
+        <v>105557.0096</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>40734.36714</v>
+        <v>113162.53734</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>42654.03140000001</v>
+        <v>137067.74171</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>43655.01919</v>
+        <v>149513.05836</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>131702.83301</v>
+        <v>247190.42775</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>163001.40605</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>309667.13854</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>332927.871</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>87052.08579</v>
+        <v>536558.85953</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>63316.49173</v>
+        <v>236754.3757</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>71708.47610000001</v>
+        <v>315227.1473300001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>58468.84194</v>
+        <v>272478.07839</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>58442.40839000001</v>
+        <v>372067.02781</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>135748.17506</v>
+        <v>321045.86789</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>166181.04548</v>
+        <v>489613.71815</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>52297.89043</v>
+        <v>555644.04859</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>61562.8325</v>
+        <v>392568.41671</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>311225.2850800001</v>
+        <v>1511254.00813</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>198005.99231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>841939.9291900001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1325514.572</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>13819.6825</v>
+        <v>14596.14684</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>10622.18536</v>
+        <v>11504.86541</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>10795.47928</v>
+        <v>11866.37355</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>9306.348149999998</v>
+        <v>10234.43467</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>9380.375480000001</v>
+        <v>10205.89637</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>10851.43874</v>
+        <v>12064.69332</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8207.925429999999</v>
+        <v>10910.46663</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>10265.85369</v>
+        <v>11780.16471</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>15423.56974</v>
+        <v>16794.90943</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>36052.39625</v>
+        <v>38322.39809</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>44731.61435</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>49466.29725999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>58225.099</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>27083.15138</v>
+        <v>31195.00805</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>10535.97107</v>
+        <v>11856.53073</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5590.98255</v>
+        <v>12964.18798</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>14519.22727</v>
+        <v>16947.36573</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5833.79169</v>
+        <v>11621.31082</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5029.53408</v>
+        <v>9297.408160000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5224.902170000001</v>
+        <v>9636.241370000002</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7407.89199</v>
+        <v>10911.74406</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3352.1805</v>
+        <v>14160.37514</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>18327.07596</v>
+        <v>23791.8975</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>22826.74432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>36267.87239</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>26370.329</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>484.94836</v>
+        <v>6377.562500000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>654.8007299999999</v>
+        <v>1325.15769</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1728.63025</v>
+        <v>1951.40775</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>547.2833900000001</v>
+        <v>1932.46177</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>5044.09257</v>
+        <v>16177.08728</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>83505.18908</v>
+        <v>84441.25762999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>93908.68203</v>
+        <v>95456.6581</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>891.62374</v>
+        <v>163142.71524</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>169.03603</v>
+        <v>12140.25655</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>565.0824200000001</v>
+        <v>5021.38316</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>553.03156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3127.80794</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>41028.706</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>20947.31011</v>
+        <v>451004.2109900001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>16207.29068</v>
+        <v>171246.82828</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>21986.3274</v>
+        <v>244900.57067</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>14027.95437</v>
+        <v>78715.60416999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>14153.37648</v>
+        <v>259484.79127</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>12710.53207</v>
+        <v>159128.93643</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>25549.00442</v>
+        <v>292193.9729299999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>17934.75085</v>
+        <v>302598.23955</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>25258.32978</v>
+        <v>244281.87645</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>167760.2192</v>
+        <v>1298731.14682</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>83040.72807000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>651988.51459</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1030476.67</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>732.3628100000001</v>
+        <v>896.85545</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>318.92633</v>
+        <v>330.49439</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>143.63772</v>
+        <v>210.34049</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>228.51757</v>
+        <v>252.99429</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>725.0810799999999</v>
+        <v>906.0817900000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>517.05099</v>
+        <v>804.72277</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>249.05921</v>
+        <v>1128.38055</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>9.916619999999998</v>
+        <v>668.60401</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>95.73284000000001</v>
+        <v>179.89956</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>675.58951</v>
+        <v>710.5906000000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>335.97912</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>9695.08452</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>6997.787</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>2500.74172</v>
+        <v>3635.72112</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>3211.04968</v>
+        <v>5164.31584</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>5073.004690000001</v>
+        <v>7556.04818</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>1963.62873</v>
+        <v>3080.0513</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>4522.86163</v>
+        <v>7244.71148</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>5113.610299999999</v>
+        <v>11998.61574</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>4371.11033</v>
+        <v>9575.33986</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>4796.320940000001</v>
+        <v>10905.07553</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>6092.488909999999</v>
+        <v>17451.03224</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>50812.71094</v>
+        <v>84295.92931000001</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>16252.46897</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>28746.67234</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>63203.528</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>21483.88891</v>
+        <v>28853.35458000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>21766.26788</v>
+        <v>35326.18336000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>26390.41421</v>
+        <v>35778.21871</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>17875.88246</v>
+        <v>161315.16646</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>18782.82946</v>
+        <v>66427.1488</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>18020.8198</v>
+        <v>43310.23383999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>28670.36189</v>
+        <v>70712.65870999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>10991.5326</v>
+        <v>55637.50549</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>11171.4947</v>
+        <v>87560.06733999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>37032.21079999999</v>
+        <v>60380.66264999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>30265.42591999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>62647.68014999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>99212.45299999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>170011.21762</v>
+        <v>397140.79746</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>128562.54417</v>
+        <v>172151.00779</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>124340.4636</v>
+        <v>197460.89333</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>139078.49088</v>
+        <v>203996.76273</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>120852.44016</v>
+        <v>216416.5245800001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>119374.26447</v>
+        <v>228416.31905</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>112166.91102</v>
+        <v>279899.73772</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>114920.07431</v>
+        <v>332658.2076500001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>111660.40729</v>
+        <v>358398.81688</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>500657.99084</v>
+        <v>947467.09979</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>522913.60035</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1041589.26743</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>995242.458</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>160520.43759</v>
+        <v>383831.41977</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>120593.23494</v>
+        <v>157252.71103</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>117758.69135</v>
+        <v>163297.12431</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>131622.76824</v>
+        <v>190571.09681</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>114778.17367</v>
+        <v>173453.30121</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>113703.45524</v>
+        <v>206620.43015</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>107664.67465</v>
+        <v>239413.44228</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>110595.28436</v>
+        <v>291981.45476</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>107511.5622</v>
+        <v>338107.8534199999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>476673.9676099999</v>
+        <v>878619.46739</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>497673.78668</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>865795.7736900001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>854089.591</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>9490.780030000002</v>
+        <v>13309.37769</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>7969.30923</v>
+        <v>14898.29676</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>6581.77225</v>
+        <v>34163.76901999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>7455.72264</v>
+        <v>13425.66592</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>6074.266489999999</v>
+        <v>42963.22337</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5670.80923</v>
+        <v>21795.8889</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4502.236370000001</v>
+        <v>40486.29543999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>4324.78995</v>
+        <v>40676.75289</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4148.84509</v>
+        <v>20290.96346</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>23984.02323</v>
+        <v>68847.6324</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>25239.81367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>175793.49374</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>141152.867</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>265275.53457</v>
+        <v>2562241.81262</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>339463.90971</v>
+        <v>657967.5863</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>290846.7594</v>
+        <v>194244.21987</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>164843.53587</v>
+        <v>156081.2169</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>85613.97074</v>
+        <v>-199040.80942</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>27681.96781999999</v>
+        <v>33170.40178000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>28706.64527999999</v>
+        <v>-193576.32987</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-46645.36929</v>
+        <v>-354389.18473</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-65832.98889000001</v>
+        <v>-286056.38701</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>285228.25462</v>
+        <v>-122423.31946</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>257090.3465400001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-110996.8914500001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-580171.493</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>69280.3688</v>
+        <v>106721.95172</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>79560.54113000001</v>
+        <v>135954.24203</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>86330.02901</v>
+        <v>272631.8934000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>86169.90819</v>
+        <v>161109.72153</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>80952.11932000001</v>
+        <v>172546.77767</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>77787.90360000001</v>
+        <v>453904.8083699999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>73945.49253</v>
+        <v>222517.40893</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>81133.43229</v>
+        <v>270024.43693</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>93463.36376000001</v>
+        <v>361661.70209</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>243654.89779</v>
+        <v>721335.9004400001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>277128.19026</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>519558.02252</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>494389.192</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2284.83376</v>
+        <v>2643.11653</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1452.76037</v>
+        <v>1548.23022</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1275.20287</v>
+        <v>1463.28946</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1175.78329</v>
+        <v>2568.44226</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1489.09503</v>
+        <v>29996.51568</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1447.49187</v>
+        <v>8489.66862</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>528.7986</v>
+        <v>4041.70438</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>593.4793000000001</v>
+        <v>6566.96468</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1250.35457</v>
+        <v>2147.19733</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3307.79336</v>
+        <v>4370.06133</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2922.16343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>17202.71975</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4444.097</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>66995.53504</v>
+        <v>104078.83519</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>78107.78076000001</v>
+        <v>134406.01181</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>85054.82614</v>
+        <v>271168.60394</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>84994.1249</v>
+        <v>158541.27927</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>79463.02429</v>
+        <v>142550.26199</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>76340.41173000001</v>
+        <v>445415.13975</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>73416.69393000001</v>
+        <v>218475.70455</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>80539.95299000001</v>
+        <v>263457.47225</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>92213.00919</v>
+        <v>359514.50476</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>240347.10443</v>
+        <v>716965.8391099999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>274206.02683</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>502355.3027700001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>489945.095</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>81632.6813</v>
+        <v>118794.18426</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>96123.24218999999</v>
+        <v>138705.72427</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>442001.81317</v>
+        <v>589542.38654</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>94575.11116</v>
+        <v>131838.70979</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>89092.67588</v>
+        <v>145454.6279</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>207386.58918</v>
+        <v>298855.2664500001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>116703.83645</v>
+        <v>174372.97945</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>293642.60596</v>
+        <v>488325.59672</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>103129.08671</v>
+        <v>235270.28389</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>444656.94068</v>
+        <v>633831.6240399999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>239992.00567</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>427578.60454</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>412228.653</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1017.18924</v>
+        <v>1530.8434</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1439.87278</v>
+        <v>2547.83595</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2743.59532</v>
+        <v>3642.70222</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1045.31403</v>
+        <v>1843.7408</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>802.5034099999999</v>
+        <v>1563.05056</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>812.5640100000001</v>
+        <v>1525.64277</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1057.21996</v>
+        <v>2768.97514</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1298.4267</v>
+        <v>2057.35504</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1087.36617</v>
+        <v>2011.62166</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1413.03434</v>
+        <v>2038.80082</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2289.88817</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4562.31983</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>12654.831</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6239.032310000001</v>
+        <v>10658.76344</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>10702.33739</v>
+        <v>14690.90869</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>13413.84744</v>
+        <v>20841.97982</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>9306.251110000001</v>
+        <v>14466.2772</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7020.43436</v>
+        <v>12855.8894</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5061.068029999999</v>
+        <v>13006.7845</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5126.65212</v>
+        <v>7895.018529999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6460.50256</v>
+        <v>24521.59408</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>8674.69824</v>
+        <v>25889.13942</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>8546.506930000001</v>
+        <v>16108.94295</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8403.913259999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>28300.84779</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>11167.972</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>74376.45974999999</v>
+        <v>106604.57742</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>83981.03202000001</v>
+        <v>121466.97963</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>425844.37041</v>
+        <v>565057.7045</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>84223.54601999999</v>
+        <v>115528.69179</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>81269.73811000001</v>
+        <v>131035.68794</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>201512.95714</v>
+        <v>284322.83918</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>110519.96437</v>
+        <v>163708.98578</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>285883.6767000001</v>
+        <v>461746.6476</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>93367.0223</v>
+        <v>207369.52281</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>434697.39941</v>
+        <v>615683.88027</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>229298.20424</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>394715.43692</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>388405.85</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>252923.22207</v>
+        <v>2550169.58008</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>322901.20865</v>
+        <v>655216.10406</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-64825.02476000001</v>
+        <v>-122666.27327</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>156438.3329</v>
+        <v>185352.22864</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>77473.41418000001</v>
+        <v>-171948.65965</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-101916.71776</v>
+        <v>188219.9437</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-14051.69863999999</v>
+        <v>-145431.9003900001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-259154.54296</v>
+        <v>-572690.34452</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-75498.71184</v>
+        <v>-159664.96881</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>84226.21173</v>
+        <v>-34919.04306000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>294226.53113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-19017.47347000003</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-498010.954</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>97942.84731</v>
+        <v>107389.75619</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>103925.92304</v>
+        <v>115311.7934</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>100768.92826</v>
+        <v>116076.68529</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>93156.92743</v>
+        <v>108381.26626</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>84251.97786000001</v>
+        <v>101851.34749</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>80752.35316000001</v>
+        <v>102997.78112</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>77018.42933</v>
+        <v>105717.40426</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>75934.57564</v>
+        <v>116970.03826</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>74719.501</v>
+        <v>111331.51236</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>215850.64252</v>
+        <v>273004.33429</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>307158.82252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>376015.99726</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>328957.91</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>154980.37476</v>
+        <v>2442779.82389</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>218975.28561</v>
+        <v>539904.3106600001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-165593.95302</v>
+        <v>-238742.95856</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>63281.40546999999</v>
+        <v>76970.96238000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-6778.563680000004</v>
+        <v>-273800.00714</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-182669.07092</v>
+        <v>85222.16257999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-91070.12797</v>
+        <v>-251149.30465</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-335089.1186</v>
+        <v>-689660.38278</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-150218.21284</v>
+        <v>-270996.48117</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-131624.43079</v>
+        <v>-307923.37735</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-12932.29139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-395033.47073</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-826968.8639999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>68117</v>
+        <v>70943</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>66517</v>
+        <v>69831</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>63257</v>
+        <v>67030</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>58458</v>
+        <v>62744</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>53743</v>
+        <v>58832</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>49957</v>
+        <v>55844</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>46938</v>
+        <v>53894</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>45549</v>
+        <v>53250</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>45045</v>
+        <v>53157</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>54549</v>
+        <v>65304</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>54195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>67763</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>72100</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>